--- a/biology/Zoologie/Chondrodactylus_turneri/Chondrodactylus_turneri.xlsx
+++ b/biology/Zoologie/Chondrodactylus_turneri/Chondrodactylus_turneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chondrodactylus turneri est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chondrodactylus turneri est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Namibie, en Angola, au Botswana, au Zimbabwe, au Mozambique, en Zambie, au Malawi, en Tanzanie, au Rwanda et au Kenya[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Namibie, en Angola, au Botswana, au Zimbabwe, au Mozambique, en Zambie, au Malawi, en Tanzanie, au Rwanda et au Kenya. 
 Sa présence au Swaziland est incertaine.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko nocturne assez peureux et relativement discret. Leur couleur plutôt ternes (brun, gris) leur assure un camouflage parfait sur les arbres et les rochers.
 Ils sont munis de lamelles adhésives, les setæ, qui leur permettent de se déplacer sur toutes les surfaces que ce soit à la verticale ou même à l'envers. Ceci facilite la chasse des insectes arboricoles et aériens, car il est strictement insectivore.
